--- a/Documentación/Anexos/[Anexo 2] Historias de usuario/1. Registrar usuario.xlsx
+++ b/Documentación/Anexos/[Anexo 2] Historias de usuario/1. Registrar usuario.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonathancamilo\Desktop\Sw\Anexos\Historias de usuario, Especificaciones y matrices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\ProyectoOdontologico\Documentación\Anexos\[Anexo 2] Historias de usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8295" windowHeight="2265" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8295" windowHeight="2265"/>
   </bookViews>
   <sheets>
     <sheet name="Historia de usuario" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="187">
   <si>
     <t>Historia de usuario</t>
   </si>
@@ -49,12 +49,6 @@
   </si>
   <si>
     <t>Validaciones</t>
-  </si>
-  <si>
-    <t>archivos</t>
-  </si>
-  <si>
-    <t>Oncervaciones</t>
   </si>
   <si>
     <t>Otros cual:</t>
@@ -292,19 +286,10 @@
     <t xml:space="preserve">Media: </t>
   </si>
   <si>
-    <t>Depende de Historioas de usuarios: No depende de mas historias de usario</t>
-  </si>
-  <si>
     <t>Registrar</t>
   </si>
   <si>
     <t>El sistema debe validar que el unico responsable de esta tarea sea el usuario Administrador,esta se realizara por medio de un logueo previo para la verificacion del tipo de usuario.</t>
-  </si>
-  <si>
-    <t>Objetivo General del Proyecto:Realizar el registro de usarios que haran uso del sistema</t>
-  </si>
-  <si>
-    <t>Lino Alfonso Mena</t>
   </si>
   <si>
     <t>Desarrolador</t>
@@ -710,28 +695,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 4.2.2.Registrar usuario, 4.2.3.Modificar usuario, 4.2.4.Inhabilitar usuario</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>boceto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> X </t>
     </r>
   </si>
   <si>
@@ -757,11 +720,62 @@
       <t>no aplica</t>
     </r>
   </si>
+  <si>
+    <t>Nicolay Joya González</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Objetivo General del Proyecto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Realizar el registro de usarios que haran uso del sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Depende de Historioas de usuarios:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+No depende de mas historias de usario</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1040,7 +1054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1091,119 +1105,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1485,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,72 +1497,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="18" t="s">
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="44" t="s">
+      <c r="E4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="27" t="s">
         <v>49</v>
-      </c>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="26" t="s">
-        <v>51</v>
       </c>
       <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>2</v>
@@ -1577,219 +1570,232 @@
       <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="34"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="44" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+        <v>53</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
+        <v>53</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
+      <c r="B18" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
+        <v>9</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="25"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="40">
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F6:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I11"/>
+    <mergeCell ref="F12:I15"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:D3"/>
@@ -1800,40 +1806,9 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F6:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F11:I12"/>
-    <mergeCell ref="F13:I16"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -1841,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1852,22 +1827,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1875,19 +1850,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1895,19 +1870,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1915,19 +1890,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1935,19 +1910,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1955,19 +1930,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1975,19 +1950,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1995,19 +1970,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2015,39 +1990,39 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2055,19 +2030,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2075,39 +2050,39 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2115,19 +2090,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2135,19 +2110,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2155,19 +2130,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -2194,49 +2169,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="A1" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2244,31 +2219,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -2276,31 +2251,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -2308,31 +2283,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2340,31 +2315,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2372,31 +2347,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2404,31 +2379,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="I8" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2436,31 +2411,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2468,31 +2443,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="I10" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2500,31 +2475,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="I11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2532,31 +2507,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2564,31 +2539,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2596,31 +2571,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2628,31 +2603,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="H15" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2660,31 +2635,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2692,31 +2667,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2724,31 +2699,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2756,31 +2731,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="I19" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2788,31 +2763,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2820,31 +2795,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="G21" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2852,31 +2827,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -2884,31 +2859,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2916,31 +2891,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -2948,31 +2923,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="H25" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2980,31 +2955,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3012,31 +2987,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3044,31 +3019,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -3076,31 +3051,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3115,7 +3090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -3127,49 +3102,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="A1" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3177,31 +3152,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3209,31 +3184,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -3241,31 +3216,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3273,31 +3248,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3305,31 +3280,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3337,31 +3312,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -3369,31 +3344,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="I9" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3401,63 +3376,63 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="I11" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -3465,31 +3440,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3497,31 +3472,31 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3529,31 +3504,31 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3561,31 +3536,31 @@
         <v>7</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3593,31 +3568,31 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3625,31 +3600,31 @@
         <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3657,31 +3632,31 @@
         <v>11</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3689,31 +3664,31 @@
         <v>12</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3721,31 +3696,31 @@
         <v>13</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3753,31 +3728,31 @@
         <v>14</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3785,31 +3760,31 @@
         <v>15</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3817,31 +3792,31 @@
         <v>16</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -3849,61 +3824,61 @@
         <v>17</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3911,31 +3886,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3943,31 +3918,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3975,31 +3950,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4014,8 +3989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4027,84 +4002,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="A1" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -4112,69 +4087,69 @@
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>184</v>
-      </c>
       <c r="D4" s="16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
